--- a/projet capstone/results/tables/anomaly_A2_global.xlsx
+++ b/projet capstone/results/tables/anomaly_A2_global.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -478,16 +478,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0008766418188152697</v>
+        <v>0.000879017197648807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02818279610580557</v>
+        <v>0.02820932982320366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4805837984713903</v>
+        <v>0.4784197943381507</v>
       </c>
       <c r="E2" t="n">
-        <v>151480</v>
+        <v>151229</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001531456250773214</v>
+        <v>0.001537885844552155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02757602445011995</v>
+        <v>0.0276356139230172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4602401129943502</v>
+        <v>0.4835471064284624</v>
       </c>
       <c r="E3" t="n">
-        <v>14120</v>
+        <v>14060</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
